--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,372 +55,357 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>son</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>apples</t>
   </si>
   <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nicely</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>liked</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>fan</t>
   </si>
   <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>maker</t>
   </si>
   <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
     <t>far</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
     <t>fast</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>little</t>
+    <t>last</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>got</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
@@ -430,13 +415,16 @@
     <t>better</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
   </si>
   <si>
     <t>used</t>
@@ -806,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -875,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -893,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -917,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -925,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -943,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -967,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -999,13 +987,13 @@
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1025,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3018867924528302</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1043,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1067,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1075,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2868217054263566</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1093,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
@@ -1125,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2564102564102564</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1143,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8695652173913043</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1167,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1175,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2222222222222222</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1193,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8591331269349846</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L9">
-        <v>555</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>555</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1217,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1225,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1243243243243243</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1243,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8478260869565217</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1267,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1275,13 +1263,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1293,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1301,13 +1289,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7922077922077922</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1319,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1345,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1353,13 +1341,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7727272727272727</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1371,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1379,13 +1367,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7012987012987013</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L15">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1393,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6779661016949152</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L16">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1431,13 +1419,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.676056338028169</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1483,13 +1471,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6420545746388443</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="L19">
-        <v>800</v>
+        <v>192</v>
       </c>
       <c r="M19">
-        <v>800</v>
+        <v>192</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>446</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1509,13 +1497,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6326530612244898</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1535,13 +1523,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6301369863013698</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1553,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1561,13 +1549,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1579,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1587,13 +1575,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1605,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1613,13 +1601,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1631,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1639,13 +1627,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6171428571428571</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L25">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1657,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1665,13 +1653,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1683,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1691,25 +1679,25 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6153846153846154</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>16</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1717,13 +1705,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6142857142857143</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1735,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1743,13 +1731,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6140350877192983</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1761,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1769,13 +1757,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.6041666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1787,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1795,13 +1783,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1813,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1821,13 +1809,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5862068965517241</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1847,13 +1835,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5757575757575758</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1865,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1873,13 +1861,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5714285714285714</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1891,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1899,13 +1887,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5641025641025641</v>
+        <v>0.55</v>
       </c>
       <c r="L35">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1917,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1925,13 +1913,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5490196078431373</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1943,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1951,13 +1939,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5396825396825397</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1969,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1980,10 +1968,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1995,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2003,13 +1991,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5245901639344263</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2021,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2029,13 +2017,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.5149700598802395</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L40">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2047,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2055,13 +2043,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.5060240963855421</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2073,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2081,13 +2069,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2099,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2107,13 +2095,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2125,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2133,13 +2121,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2151,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2159,13 +2147,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.4923076923076923</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2177,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2185,13 +2173,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4903846153846154</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L46">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2203,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2211,13 +2199,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4887218045112782</v>
+        <v>0.47</v>
       </c>
       <c r="L47">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M47">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2229,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2237,13 +2225,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4871794871794872</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2255,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2263,13 +2251,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4736842105263158</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L49">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2281,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2289,13 +2277,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4444444444444444</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2307,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2315,13 +2303,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.4210526315789473</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2333,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2341,13 +2329,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.4156626506024096</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L52">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2359,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2367,13 +2355,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.4126984126984127</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2385,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2393,13 +2381,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.4081632653061225</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2419,13 +2407,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.38</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2437,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2445,13 +2433,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.3695652173913043</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2463,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2471,13 +2459,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3513513513513514</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2489,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2497,13 +2485,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3463035019455253</v>
+        <v>0.3540856031128405</v>
       </c>
       <c r="L58">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M58">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2515,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2523,13 +2511,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3458646616541353</v>
+        <v>0.3480392156862745</v>
       </c>
       <c r="L59">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="M59">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2541,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>87</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2549,13 +2537,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3454545454545455</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2567,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2575,13 +2563,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3392857142857143</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2593,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2601,13 +2589,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3387096774193548</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2619,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2627,13 +2615,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3357843137254902</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L63">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2645,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>271</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2653,13 +2641,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.3289473684210527</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L64">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2671,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2679,13 +2667,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.3267326732673267</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L65">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M65">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2697,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>68</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2705,13 +2693,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.3260869565217391</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2723,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2731,13 +2719,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.3240740740740741</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L67">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2749,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2757,13 +2745,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.3235294117647059</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2775,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2783,13 +2771,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.3191489361702128</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2801,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2809,13 +2797,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.3054794520547945</v>
+        <v>0.2794520547945206</v>
       </c>
       <c r="L70">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M70">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2827,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2835,13 +2823,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.302158273381295</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L71">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2853,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2861,13 +2849,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2916666666666667</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2879,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2887,13 +2875,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.2833333333333333</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2905,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2913,13 +2901,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.265625</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2931,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>47</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2939,13 +2927,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.2535885167464115</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L75">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2957,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2965,13 +2953,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.2516556291390729</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L76">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M76">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2983,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2991,13 +2979,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.25</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3009,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3017,13 +3005,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2483221476510067</v>
+        <v>0.2288401253918495</v>
       </c>
       <c r="L78">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M78">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3035,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>112</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3043,13 +3031,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.2421959095801938</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L79">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3061,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>704</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3069,13 +3057,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.2380952380952381</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L80">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3087,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3095,13 +3083,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2272727272727273</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3113,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3121,13 +3109,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.2252252252252252</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L82">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3139,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3147,13 +3135,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.2236842105263158</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3165,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3173,13 +3161,13 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.2235294117647059</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L84">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3191,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3199,13 +3187,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.219435736677116</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="L85">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M85">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3217,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>249</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3225,13 +3213,13 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.2142857142857143</v>
+        <v>0.19</v>
       </c>
       <c r="L86">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M86">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3243,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3251,13 +3239,13 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.2117647058823529</v>
+        <v>0.1892583120204604</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="M87">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3269,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>67</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3277,13 +3265,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.2049180327868853</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L88">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M88">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3295,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3303,13 +3291,13 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.2035398230088496</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3321,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>90</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3329,25 +3317,25 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.1956521739130435</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L90">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3355,13 +3343,13 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.19</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L91">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M91">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3373,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3381,13 +3369,13 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1834862385321101</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3399,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3407,25 +3395,25 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1828644501278772</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L93">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="M93">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>639</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3433,13 +3421,13 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1721854304635762</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L94">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="M94">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3451,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>625</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3459,13 +3447,13 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1623931623931624</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3477,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3485,13 +3473,13 @@
         <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1616161616161616</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="L96">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3503,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3511,13 +3499,13 @@
         <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1550387596899225</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L97">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M97">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3529,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>109</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3537,25 +3525,25 @@
         <v>112</v>
       </c>
       <c r="K98">
-        <v>0.145945945945946</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="L98">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M98">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N98">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>316</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3563,13 +3551,13 @@
         <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1454545454545454</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M99">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3581,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3589,25 +3577,25 @@
         <v>114</v>
       </c>
       <c r="K100">
-        <v>0.140893470790378</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L100">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M100">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>250</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3615,13 +3603,13 @@
         <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1402439024390244</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L101">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M101">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3641,13 +3629,13 @@
         <v>116</v>
       </c>
       <c r="K102">
-        <v>0.138655462184874</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L102">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M102">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3659,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3667,13 +3655,13 @@
         <v>117</v>
       </c>
       <c r="K103">
-        <v>0.1362530413625304</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L103">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M103">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3685,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>355</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3693,13 +3681,13 @@
         <v>118</v>
       </c>
       <c r="K104">
-        <v>0.1355932203389831</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L104">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M104">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3711,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>153</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3719,13 +3707,13 @@
         <v>119</v>
       </c>
       <c r="K105">
-        <v>0.1328413284132841</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L105">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M105">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3737,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3745,13 +3733,13 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <v>0.1231527093596059</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L106">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M106">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3763,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>178</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3771,13 +3759,13 @@
         <v>121</v>
       </c>
       <c r="K107">
-        <v>0.1230769230769231</v>
+        <v>0.125</v>
       </c>
       <c r="L107">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M107">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3789,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>114</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3797,13 +3785,13 @@
         <v>122</v>
       </c>
       <c r="K108">
-        <v>0.1165644171779141</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L108">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M108">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3815,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>144</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3823,13 +3811,13 @@
         <v>123</v>
       </c>
       <c r="K109">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L109">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M109">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3841,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>138</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3849,13 +3837,13 @@
         <v>124</v>
       </c>
       <c r="K110">
-        <v>0.1145038167938931</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L110">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M110">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3867,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>116</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3875,13 +3863,13 @@
         <v>125</v>
       </c>
       <c r="K111">
-        <v>0.1136363636363636</v>
+        <v>0.1030701754385965</v>
       </c>
       <c r="L111">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M111">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3893,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3901,13 +3889,13 @@
         <v>126</v>
       </c>
       <c r="K112">
-        <v>0.1097852028639618</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="L112">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3919,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>373</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3927,13 +3915,13 @@
         <v>127</v>
       </c>
       <c r="K113">
-        <v>0.1074561403508772</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="L113">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M113">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3945,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>407</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3953,25 +3941,25 @@
         <v>128</v>
       </c>
       <c r="K114">
-        <v>0.1045751633986928</v>
+        <v>0.08177905308464849</v>
       </c>
       <c r="L114">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M114">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
-        <v>137</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -3979,13 +3967,13 @@
         <v>129</v>
       </c>
       <c r="K115">
-        <v>0.1</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="L115">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M115">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -3997,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>243</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4005,25 +3993,25 @@
         <v>130</v>
       </c>
       <c r="K116">
-        <v>0.09899569583931134</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="L116">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="M116">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="N116">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>628</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4031,13 +4019,13 @@
         <v>131</v>
       </c>
       <c r="K117">
-        <v>0.08870967741935484</v>
+        <v>0.06623134328358209</v>
       </c>
       <c r="L117">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="M117">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4049,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>226</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4057,13 +4045,13 @@
         <v>132</v>
       </c>
       <c r="K118">
-        <v>0.08743169398907104</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="L118">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M118">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4075,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>334</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4083,25 +4071,25 @@
         <v>133</v>
       </c>
       <c r="K119">
-        <v>0.08653846153846154</v>
+        <v>0.05067567567567568</v>
       </c>
       <c r="L119">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M119">
         <v>18</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
-        <v>190</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4109,13 +4097,13 @@
         <v>134</v>
       </c>
       <c r="K120">
-        <v>0.08108108108108109</v>
+        <v>0.04981549815498155</v>
       </c>
       <c r="L120">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M120">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4127,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>170</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4135,25 +4123,25 @@
         <v>135</v>
       </c>
       <c r="K121">
-        <v>0.06852791878172589</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="L121">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M121">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4161,25 +4149,25 @@
         <v>136</v>
       </c>
       <c r="K122">
-        <v>0.06722689075630252</v>
+        <v>0.04600484261501211</v>
       </c>
       <c r="L122">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M122">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="N122">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O122">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>999</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4187,25 +4175,25 @@
         <v>137</v>
       </c>
       <c r="K123">
-        <v>0.05514705882352941</v>
+        <v>0.04414587332053743</v>
       </c>
       <c r="L123">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M123">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
-        <v>257</v>
+        <v>498</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4213,25 +4201,25 @@
         <v>138</v>
       </c>
       <c r="K124">
-        <v>0.05166051660516605</v>
+        <v>0.04163052905464007</v>
       </c>
       <c r="L124">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M124">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
-        <v>514</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4239,129 +4227,25 @@
         <v>139</v>
       </c>
       <c r="K125">
-        <v>0.05097087378640777</v>
+        <v>0.0235910878112713</v>
       </c>
       <c r="L125">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M125">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N125">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="O125">
-        <v>0.08999999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="126" spans="10:17">
-      <c r="J126" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K126">
-        <v>0.0467032967032967</v>
-      </c>
-      <c r="L126">
-        <v>17</v>
-      </c>
-      <c r="M126">
-        <v>18</v>
-      </c>
-      <c r="N126">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O126">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P126" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q126">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="127" spans="10:17">
-      <c r="J127" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K127">
-        <v>0.04022988505747126</v>
-      </c>
-      <c r="L127">
-        <v>21</v>
-      </c>
-      <c r="M127">
-        <v>21</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="128" spans="10:17">
-      <c r="J128" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K128">
-        <v>0.03719723183391004</v>
-      </c>
-      <c r="L128">
-        <v>43</v>
-      </c>
-      <c r="M128">
-        <v>44</v>
-      </c>
-      <c r="N128">
-        <v>0.98</v>
-      </c>
-      <c r="O128">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P128" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q128">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K129">
-        <v>0.02759526938239159</v>
-      </c>
-      <c r="L129">
-        <v>21</v>
-      </c>
-      <c r="M129">
-        <v>27</v>
-      </c>
-      <c r="N129">
-        <v>0.78</v>
-      </c>
-      <c r="O129">
-        <v>0.22</v>
-      </c>
-      <c r="P129" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q129">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
